--- a/biology/Médecine/Gaston_Cotte/Gaston_Cotte.xlsx
+++ b/biology/Médecine/Gaston_Cotte/Gaston_Cotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaston Cotte, né le 14 novembre 1879 à Lyon où il est mort le 3 janvier 1951, est un chirurgien français, 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Second de 4 enfants, Gaston Léon Gratien Cotte naît le 14 novembre 1879 à Lyon. Son père, Léon Cotte (1843-1917) est négociant en soieries, tout comme son grand-père l'avait été, après avoir exercé le métier de percepteur, dans l'Isère. Sa mère Sophie Pirjantz (1854-1943) est d’origine turc (Smyrne). Son frère, Albert Cotte (1878-1954) était également un médecin réputé, époux de Jeanne Perriollat, la sœur de Louise.
 En 1897, il entre à la Faculté des Sciences du quai Claude-Bernard
@@ -550,7 +564,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue de Lyon porte son nom.
 </t>
